--- a/synuclein_inclusion_biogenesis_2024/image_analysis/galectin/23525_3K_dox_inclusions.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/galectin/23525_3K_dox_inclusions.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Inclusions</t>
+          <t>Inclusion</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>123</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>24</v>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>324</v>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>42</v>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>55</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>18</v>
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>86</v>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>128</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>44</v>
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>19</v>
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>54</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>27</v>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>25</v>
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>28</v>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>24</v>
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>1085</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>55</v>
@@ -785,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>208</v>
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>7</v>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>12</v>
@@ -833,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>6</v>
@@ -849,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>29</v>
@@ -865,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>33</v>
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
         <v>213</v>
@@ -897,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
         <v>38</v>
@@ -913,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
         <v>5</v>
@@ -945,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>26</v>
@@ -961,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>34</v>
@@ -977,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>219</v>
@@ -993,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>31</v>
@@ -1009,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>59</v>
@@ -1025,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>68</v>
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>15</v>
@@ -1057,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>260</v>
@@ -1073,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>5</v>
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>42</v>
@@ -1105,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>39</v>
@@ -1121,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>43</v>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>7</v>
@@ -1153,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
         <v>50</v>
@@ -1169,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
@@ -1185,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
         <v>111</v>
@@ -1201,7 +1201,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
         <v>7</v>
@@ -1217,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>225</v>
@@ -1233,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>11</v>
@@ -1249,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>6</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>8</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>5</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>5</v>
@@ -1313,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>342</v>
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>99</v>
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>16</v>
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>334</v>
@@ -1377,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>524</v>
@@ -1393,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
         <v>111</v>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>5</v>
@@ -1425,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>5</v>
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>62</v>
@@ -1457,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>42</v>
@@ -1473,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>14</v>
@@ -1489,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
         <v>16</v>
@@ -1505,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
         <v>154</v>
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
@@ -1537,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
         <v>18</v>
@@ -1553,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>43</v>
@@ -1569,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>53</v>
@@ -1585,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>270</v>
@@ -1601,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>24</v>
@@ -1617,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>1077</v>
@@ -1633,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>430</v>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>52</v>
@@ -1665,7 +1665,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>7</v>
@@ -1681,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>10</v>
@@ -1697,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
@@ -1713,7 +1713,7 @@
         <v>8</v>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
@@ -1729,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>17</v>
@@ -1745,7 +1745,7 @@
         <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>62</v>
@@ -1761,7 +1761,7 @@
         <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>18</v>
@@ -1777,7 +1777,7 @@
         <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>8</v>
@@ -1793,7 +1793,7 @@
         <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
@@ -1809,7 +1809,7 @@
         <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
         <v>34</v>
@@ -1825,7 +1825,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
         <v>19</v>
@@ -1841,7 +1841,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
         <v>5</v>
@@ -1857,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>16</v>
@@ -1873,7 +1873,7 @@
         <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>11</v>
@@ -1889,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>51</v>
@@ -1905,7 +1905,7 @@
         <v>9</v>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>11</v>
@@ -1921,7 +1921,7 @@
         <v>9</v>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
@@ -1937,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
         <v>11</v>
@@ -1953,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="C95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
         <v>15</v>
@@ -1969,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="C96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" t="n">
         <v>7</v>
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>14</v>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>90</v>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>5</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>20</v>
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>110</v>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
         <v>6</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D103" t="n">
         <v>17</v>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" t="n">
         <v>133</v>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>12</v>
@@ -2129,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
         <v>30</v>
@@ -2145,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
         <v>52</v>
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
         <v>82</v>
@@ -2177,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
         <v>14</v>
@@ -2193,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110" t="n">
         <v>16</v>
@@ -2209,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" t="n">
         <v>143</v>
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D112" t="n">
         <v>154</v>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>438</v>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
         <v>21</v>
@@ -2273,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>6</v>
@@ -2289,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116" t="n">
         <v>7</v>
@@ -2305,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D117" t="n">
         <v>16</v>
@@ -2321,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D118" t="n">
         <v>6</v>
@@ -2337,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119" t="n">
         <v>7</v>
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D120" t="n">
         <v>8</v>
@@ -2369,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D121" t="n">
         <v>7</v>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="C122" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
         <v>9</v>
@@ -2401,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
         <v>6</v>
@@ -2417,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124" t="n">
         <v>5</v>
@@ -2433,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" t="n">
         <v>470</v>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
         <v>5</v>
@@ -2465,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127" t="n">
         <v>6</v>
@@ -2481,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>22</v>
@@ -2497,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
         <v>201</v>
@@ -2513,7 +2513,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D130" t="n">
         <v>63</v>
@@ -2529,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>46</v>
@@ -2545,7 +2545,7 @@
         <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D132" t="n">
         <v>59</v>
@@ -2561,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133" t="n">
         <v>16</v>
@@ -2577,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>144</v>
@@ -2593,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
         <v>147</v>
@@ -2609,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" t="n">
         <v>121</v>
@@ -2625,7 +2625,7 @@
         <v>6</v>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D137" t="n">
         <v>64</v>
@@ -2641,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
         <v>9</v>
@@ -2657,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
         <v>16</v>
@@ -2673,7 +2673,7 @@
         <v>7</v>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D140" t="n">
         <v>81</v>
@@ -2689,7 +2689,7 @@
         <v>7</v>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D141" t="n">
         <v>6</v>
@@ -2705,7 +2705,7 @@
         <v>7</v>
       </c>
       <c r="C142" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D142" t="n">
         <v>56</v>
@@ -2721,7 +2721,7 @@
         <v>7</v>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
         <v>49</v>
@@ -2737,7 +2737,7 @@
         <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>8</v>
@@ -2753,7 +2753,7 @@
         <v>8</v>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
         <v>12</v>
@@ -2769,7 +2769,7 @@
         <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D146" t="n">
         <v>7</v>
@@ -2785,7 +2785,7 @@
         <v>8</v>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D147" t="n">
         <v>13</v>
@@ -2801,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
         <v>22</v>
@@ -2817,7 +2817,7 @@
         <v>9</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>75</v>
@@ -2833,7 +2833,7 @@
         <v>10</v>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>58</v>
@@ -2849,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151" t="n">
         <v>84</v>
@@ -2865,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D152" t="n">
         <v>26</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>6</v>
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
         <v>9</v>
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D155" t="n">
         <v>18</v>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D156" t="n">
         <v>27</v>
@@ -2945,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>613</v>
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="C158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D158" t="n">
         <v>13</v>
@@ -2977,7 +2977,7 @@
         <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159" t="n">
         <v>6</v>
@@ -2993,7 +2993,7 @@
         <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D160" t="n">
         <v>37</v>
@@ -3009,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D161" t="n">
         <v>12</v>
@@ -3025,7 +3025,7 @@
         <v>2</v>
       </c>
       <c r="C162" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
         <v>60</v>
@@ -3041,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="C163" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D163" t="n">
         <v>35</v>
@@ -3057,7 +3057,7 @@
         <v>2</v>
       </c>
       <c r="C164" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D164" t="n">
         <v>65</v>
@@ -3073,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="C165" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D165" t="n">
         <v>151</v>
@@ -3089,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="C166" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D166" t="n">
         <v>59</v>
@@ -3105,7 +3105,7 @@
         <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D167" t="n">
         <v>31</v>
@@ -3121,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
         <v>1993</v>
@@ -3137,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
         <v>18</v>
@@ -3153,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
         <v>68</v>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D171" t="n">
         <v>6</v>
@@ -3185,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D172" t="n">
         <v>66</v>
@@ -3201,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
         <v>285</v>
@@ -3217,7 +3217,7 @@
         <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D174" t="n">
         <v>97</v>
@@ -3233,7 +3233,7 @@
         <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D175" t="n">
         <v>5</v>
@@ -3249,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
         <v>82</v>
@@ -3265,7 +3265,7 @@
         <v>6</v>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177" t="n">
         <v>27</v>
@@ -3281,7 +3281,7 @@
         <v>6</v>
       </c>
       <c r="C178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D178" t="n">
         <v>549</v>
@@ -3297,7 +3297,7 @@
         <v>6</v>
       </c>
       <c r="C179" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D179" t="n">
         <v>116</v>
@@ -3313,7 +3313,7 @@
         <v>6</v>
       </c>
       <c r="C180" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D180" t="n">
         <v>7</v>
@@ -3329,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="C181" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D181" t="n">
         <v>53</v>
@@ -3345,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="C182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
         <v>152</v>
@@ -3361,7 +3361,7 @@
         <v>7</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="n">
         <v>8</v>
@@ -3377,7 +3377,7 @@
         <v>8</v>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>24</v>
@@ -3393,7 +3393,7 @@
         <v>8</v>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
         <v>9</v>
@@ -3409,7 +3409,7 @@
         <v>8</v>
       </c>
       <c r="C186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D186" t="n">
         <v>25</v>
@@ -3425,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>29</v>
@@ -3441,7 +3441,7 @@
         <v>9</v>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188" t="n">
         <v>9</v>
@@ -3457,7 +3457,7 @@
         <v>9</v>
       </c>
       <c r="C189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D189" t="n">
         <v>12</v>
@@ -3473,7 +3473,7 @@
         <v>9</v>
       </c>
       <c r="C190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D190" t="n">
         <v>5</v>
@@ -3489,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="C191" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D191" t="n">
         <v>32</v>
@@ -3505,7 +3505,7 @@
         <v>9</v>
       </c>
       <c r="C192" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D192" t="n">
         <v>32</v>
@@ -3521,7 +3521,7 @@
         <v>10</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>87</v>
@@ -3537,7 +3537,7 @@
         <v>10</v>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D194" t="n">
         <v>41</v>
@@ -3553,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D195" t="n">
         <v>43</v>
@@ -3569,7 +3569,7 @@
         <v>10</v>
       </c>
       <c r="C196" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D196" t="n">
         <v>37</v>
@@ -3585,7 +3585,7 @@
         <v>10</v>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D197" t="n">
         <v>30</v>
@@ -3601,7 +3601,7 @@
         <v>10</v>
       </c>
       <c r="C198" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D198" t="n">
         <v>26</v>
@@ -3617,7 +3617,7 @@
         <v>10</v>
       </c>
       <c r="C199" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D199" t="n">
         <v>98</v>
@@ -3633,7 +3633,7 @@
         <v>10</v>
       </c>
       <c r="C200" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D200" t="n">
         <v>38</v>
@@ -3649,7 +3649,7 @@
         <v>10</v>
       </c>
       <c r="C201" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D201" t="n">
         <v>13</v>
@@ -3665,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
         <v>28</v>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D203" t="n">
         <v>14</v>
@@ -3697,7 +3697,7 @@
         <v>2</v>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>10</v>
@@ -3713,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D205" t="n">
         <v>18</v>
@@ -3729,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
         <v>7</v>
@@ -3745,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="C207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D207" t="n">
         <v>342</v>
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D208" t="n">
         <v>40</v>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="C209" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D209" t="n">
         <v>6</v>
@@ -3793,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="C210" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D210" t="n">
         <v>30</v>
@@ -3809,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="C211" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
         <v>61</v>
@@ -3825,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="C212" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D212" t="n">
         <v>67</v>
@@ -3841,7 +3841,7 @@
         <v>4</v>
       </c>
       <c r="C213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>8</v>
@@ -3857,7 +3857,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D214" t="n">
         <v>60</v>
@@ -3873,7 +3873,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D215" t="n">
         <v>180</v>
@@ -3889,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="C216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>506</v>
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D217" t="n">
         <v>5</v>
@@ -3921,7 +3921,7 @@
         <v>5</v>
       </c>
       <c r="C218" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D218" t="n">
         <v>55</v>
@@ -3937,7 +3937,7 @@
         <v>5</v>
       </c>
       <c r="C219" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D219" t="n">
         <v>90</v>
@@ -3953,7 +3953,7 @@
         <v>5</v>
       </c>
       <c r="C220" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D220" t="n">
         <v>146</v>
@@ -3969,7 +3969,7 @@
         <v>6</v>
       </c>
       <c r="C221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" t="n">
         <v>377</v>
@@ -3985,7 +3985,7 @@
         <v>6</v>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D222" t="n">
         <v>123</v>
@@ -4001,7 +4001,7 @@
         <v>6</v>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D223" t="n">
         <v>36</v>
@@ -4017,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="C224" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D224" t="n">
         <v>16</v>
@@ -4033,7 +4033,7 @@
         <v>6</v>
       </c>
       <c r="C225" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D225" t="n">
         <v>11</v>
@@ -4049,7 +4049,7 @@
         <v>6</v>
       </c>
       <c r="C226" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D226" t="n">
         <v>456</v>
@@ -4065,7 +4065,7 @@
         <v>6</v>
       </c>
       <c r="C227" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D227" t="n">
         <v>13</v>
@@ -4081,7 +4081,7 @@
         <v>7</v>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
         <v>12</v>
@@ -4097,7 +4097,7 @@
         <v>7</v>
       </c>
       <c r="C229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D229" t="n">
         <v>13</v>
@@ -4113,7 +4113,7 @@
         <v>7</v>
       </c>
       <c r="C230" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D230" t="n">
         <v>5</v>
@@ -4129,7 +4129,7 @@
         <v>7</v>
       </c>
       <c r="C231" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D231" t="n">
         <v>70</v>
@@ -4145,7 +4145,7 @@
         <v>7</v>
       </c>
       <c r="C232" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D232" t="n">
         <v>10</v>
@@ -4161,7 +4161,7 @@
         <v>7</v>
       </c>
       <c r="C233" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D233" t="n">
         <v>5</v>
@@ -4177,7 +4177,7 @@
         <v>7</v>
       </c>
       <c r="C234" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D234" t="n">
         <v>8</v>
@@ -4193,7 +4193,7 @@
         <v>7</v>
       </c>
       <c r="C235" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D235" t="n">
         <v>29</v>
@@ -4209,7 +4209,7 @@
         <v>8</v>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236" t="n">
         <v>137</v>
@@ -4225,7 +4225,7 @@
         <v>8</v>
       </c>
       <c r="C237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D237" t="n">
         <v>32</v>
@@ -4241,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="C238" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D238" t="n">
         <v>9</v>
@@ -4257,7 +4257,7 @@
         <v>8</v>
       </c>
       <c r="C239" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D239" t="n">
         <v>29</v>
@@ -4273,7 +4273,7 @@
         <v>8</v>
       </c>
       <c r="C240" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D240" t="n">
         <v>18</v>
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="C241" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D241" t="n">
         <v>18</v>
@@ -4305,7 +4305,7 @@
         <v>8</v>
       </c>
       <c r="C242" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D242" t="n">
         <v>25</v>
@@ -4321,7 +4321,7 @@
         <v>8</v>
       </c>
       <c r="C243" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D243" t="n">
         <v>67</v>
@@ -4337,7 +4337,7 @@
         <v>9</v>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244" t="n">
         <v>12</v>
@@ -4353,7 +4353,7 @@
         <v>9</v>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D245" t="n">
         <v>23</v>
@@ -4369,7 +4369,7 @@
         <v>9</v>
       </c>
       <c r="C246" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D246" t="n">
         <v>505</v>
@@ -4385,7 +4385,7 @@
         <v>9</v>
       </c>
       <c r="C247" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D247" t="n">
         <v>6</v>
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
         <v>14</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D249" t="n">
         <v>251</v>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D250" t="n">
         <v>456</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D251" t="n">
         <v>32</v>
@@ -4465,7 +4465,7 @@
         <v>2</v>
       </c>
       <c r="C252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
         <v>1017</v>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="C253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D253" t="n">
         <v>49</v>
@@ -4497,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="C254" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D254" t="n">
         <v>55</v>
@@ -4513,7 +4513,7 @@
         <v>3</v>
       </c>
       <c r="C255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255" t="n">
         <v>485</v>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256" t="n">
         <v>52</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D257" t="n">
         <v>13</v>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D258" t="n">
         <v>28</v>
@@ -4577,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D259" t="n">
         <v>124</v>
@@ -4593,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D260" t="n">
         <v>296</v>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D261" t="n">
         <v>6</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D262" t="n">
         <v>239</v>
@@ -4641,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="C263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263" t="n">
         <v>17</v>
@@ -4657,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" t="n">
         <v>7</v>
@@ -4673,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="C265" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D265" t="n">
         <v>119</v>
@@ -4689,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="C266" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D266" t="n">
         <v>66</v>
@@ -4705,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="C267" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D267" t="n">
         <v>44</v>
@@ -4721,7 +4721,7 @@
         <v>2</v>
       </c>
       <c r="C268" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D268" t="n">
         <v>13</v>
@@ -4737,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="C269" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D269" t="n">
         <v>102</v>
@@ -4753,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="C270" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D270" t="n">
         <v>61</v>
@@ -4769,7 +4769,7 @@
         <v>2</v>
       </c>
       <c r="C271" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D271" t="n">
         <v>266</v>
@@ -4785,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="C272" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D272" t="n">
         <v>12</v>
@@ -4801,7 +4801,7 @@
         <v>2</v>
       </c>
       <c r="C273" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D273" t="n">
         <v>17</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="C274" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D274" t="n">
         <v>20</v>
@@ -4833,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="C275" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D275" t="n">
         <v>22</v>
@@ -4849,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="C276" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D276" t="n">
         <v>15</v>
@@ -4865,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="C277" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D277" t="n">
         <v>44</v>
@@ -4881,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="C278" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D278" t="n">
         <v>7</v>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D279" t="n">
         <v>13</v>
@@ -4913,7 +4913,7 @@
         <v>2</v>
       </c>
       <c r="C280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D280" t="n">
         <v>44</v>
@@ -4929,7 +4929,7 @@
         <v>2</v>
       </c>
       <c r="C281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D281" t="n">
         <v>32</v>
@@ -4945,7 +4945,7 @@
         <v>2</v>
       </c>
       <c r="C282" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D282" t="n">
         <v>5</v>
@@ -4961,7 +4961,7 @@
         <v>3</v>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283" t="n">
         <v>9</v>
@@ -4977,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="C284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D284" t="n">
         <v>146</v>
@@ -4993,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="C285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D285" t="n">
         <v>29</v>
@@ -5009,7 +5009,7 @@
         <v>3</v>
       </c>
       <c r="C286" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D286" t="n">
         <v>12</v>
@@ -5025,7 +5025,7 @@
         <v>4</v>
       </c>
       <c r="C287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287" t="n">
         <v>5</v>
@@ -5041,7 +5041,7 @@
         <v>4</v>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D288" t="n">
         <v>37</v>
@@ -5057,7 +5057,7 @@
         <v>4</v>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D289" t="n">
         <v>5</v>
@@ -5073,7 +5073,7 @@
         <v>4</v>
       </c>
       <c r="C290" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D290" t="n">
         <v>23</v>
@@ -5089,7 +5089,7 @@
         <v>4</v>
       </c>
       <c r="C291" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D291" t="n">
         <v>7</v>
@@ -5105,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="C292" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D292" t="n">
         <v>8</v>
@@ -5121,7 +5121,7 @@
         <v>4</v>
       </c>
       <c r="C293" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D293" t="n">
         <v>6</v>
@@ -5137,7 +5137,7 @@
         <v>5</v>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D294" t="n">
         <v>1321</v>
@@ -5153,7 +5153,7 @@
         <v>5</v>
       </c>
       <c r="C295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D295" t="n">
         <v>5</v>
@@ -5169,7 +5169,7 @@
         <v>5</v>
       </c>
       <c r="C296" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D296" t="n">
         <v>42</v>
@@ -5185,7 +5185,7 @@
         <v>5</v>
       </c>
       <c r="C297" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D297" t="n">
         <v>16</v>
@@ -5201,7 +5201,7 @@
         <v>5</v>
       </c>
       <c r="C298" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D298" t="n">
         <v>26</v>
@@ -5217,7 +5217,7 @@
         <v>5</v>
       </c>
       <c r="C299" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D299" t="n">
         <v>11</v>
@@ -5233,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D300" t="n">
         <v>27</v>
@@ -5249,7 +5249,7 @@
         <v>6</v>
       </c>
       <c r="C301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D301" t="n">
         <v>8</v>
@@ -5265,7 +5265,7 @@
         <v>6</v>
       </c>
       <c r="C302" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D302" t="n">
         <v>24</v>
@@ -5281,7 +5281,7 @@
         <v>6</v>
       </c>
       <c r="C303" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D303" t="n">
         <v>54</v>
@@ -5297,7 +5297,7 @@
         <v>6</v>
       </c>
       <c r="C304" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D304" t="n">
         <v>13</v>
@@ -5313,7 +5313,7 @@
         <v>6</v>
       </c>
       <c r="C305" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D305" t="n">
         <v>5</v>
@@ -5329,7 +5329,7 @@
         <v>6</v>
       </c>
       <c r="C306" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D306" t="n">
         <v>9</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D307" t="n">
         <v>34</v>
@@ -5361,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D308" t="n">
         <v>9</v>
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D309" t="n">
         <v>14</v>
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D310" t="n">
         <v>17</v>
@@ -5409,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D311" t="n">
         <v>54</v>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D312" t="n">
         <v>32</v>
@@ -5441,7 +5441,7 @@
         <v>2</v>
       </c>
       <c r="C313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D313" t="n">
         <v>12</v>
@@ -5457,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D314" t="n">
         <v>10</v>
@@ -5473,7 +5473,7 @@
         <v>3</v>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315" t="n">
         <v>32</v>
@@ -5489,7 +5489,7 @@
         <v>3</v>
       </c>
       <c r="C316" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D316" t="n">
         <v>16</v>
@@ -5505,7 +5505,7 @@
         <v>3</v>
       </c>
       <c r="C317" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D317" t="n">
         <v>6</v>
@@ -5521,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="C318" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D318" t="n">
         <v>5</v>
@@ -5537,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="C319" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D319" t="n">
         <v>27</v>
@@ -5553,7 +5553,7 @@
         <v>3</v>
       </c>
       <c r="C320" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D320" t="n">
         <v>15</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="C321" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D321" t="n">
         <v>8</v>
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D322" t="n">
         <v>9</v>
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D323" t="n">
         <v>7</v>
@@ -5617,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D324" t="n">
         <v>10</v>
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D325" t="n">
         <v>9</v>
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D326" t="n">
         <v>22</v>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D327" t="n">
         <v>18</v>
@@ -5681,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D328" t="n">
         <v>68</v>
@@ -5697,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="C329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D329" t="n">
         <v>528</v>
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D330" t="n">
         <v>8</v>
@@ -5729,7 +5729,7 @@
         <v>2</v>
       </c>
       <c r="C331" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D331" t="n">
         <v>124</v>
@@ -5745,7 +5745,7 @@
         <v>2</v>
       </c>
       <c r="C332" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D332" t="n">
         <v>314</v>
@@ -5761,7 +5761,7 @@
         <v>2</v>
       </c>
       <c r="C333" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D333" t="n">
         <v>6</v>
@@ -5777,7 +5777,7 @@
         <v>2</v>
       </c>
       <c r="C334" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D334" t="n">
         <v>9</v>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="C335" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D335" t="n">
         <v>14</v>
@@ -5809,7 +5809,7 @@
         <v>2</v>
       </c>
       <c r="C336" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D336" t="n">
         <v>105</v>
@@ -5825,7 +5825,7 @@
         <v>2</v>
       </c>
       <c r="C337" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D337" t="n">
         <v>7</v>
@@ -5841,7 +5841,7 @@
         <v>2</v>
       </c>
       <c r="C338" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D338" t="n">
         <v>14</v>
@@ -5857,7 +5857,7 @@
         <v>3</v>
       </c>
       <c r="C339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D339" t="n">
         <v>64</v>
@@ -5873,7 +5873,7 @@
         <v>3</v>
       </c>
       <c r="C340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D340" t="n">
         <v>60</v>
@@ -5889,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="C341" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D341" t="n">
         <v>33</v>
@@ -5905,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="C342" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D342" t="n">
         <v>171</v>
@@ -5921,7 +5921,7 @@
         <v>3</v>
       </c>
       <c r="C343" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D343" t="n">
         <v>19</v>
@@ -5937,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="C344" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D344" t="n">
         <v>146</v>
@@ -5953,7 +5953,7 @@
         <v>3</v>
       </c>
       <c r="C345" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D345" t="n">
         <v>14</v>
@@ -5969,7 +5969,7 @@
         <v>3</v>
       </c>
       <c r="C346" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D346" t="n">
         <v>18</v>
@@ -5985,7 +5985,7 @@
         <v>4</v>
       </c>
       <c r="C347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D347" t="n">
         <v>8</v>
@@ -6001,7 +6001,7 @@
         <v>4</v>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D348" t="n">
         <v>75</v>
@@ -6017,7 +6017,7 @@
         <v>4</v>
       </c>
       <c r="C349" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D349" t="n">
         <v>18</v>
@@ -6033,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="C350" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D350" t="n">
         <v>15</v>
@@ -6049,7 +6049,7 @@
         <v>5</v>
       </c>
       <c r="C351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D351" t="n">
         <v>353</v>
@@ -6065,7 +6065,7 @@
         <v>5</v>
       </c>
       <c r="C352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D352" t="n">
         <v>434</v>
@@ -6081,7 +6081,7 @@
         <v>5</v>
       </c>
       <c r="C353" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D353" t="n">
         <v>104</v>
@@ -6097,7 +6097,7 @@
         <v>5</v>
       </c>
       <c r="C354" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D354" t="n">
         <v>59</v>
@@ -6113,7 +6113,7 @@
         <v>5</v>
       </c>
       <c r="C355" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D355" t="n">
         <v>56</v>
@@ -6129,7 +6129,7 @@
         <v>5</v>
       </c>
       <c r="C356" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D356" t="n">
         <v>5</v>
@@ -6145,7 +6145,7 @@
         <v>5</v>
       </c>
       <c r="C357" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D357" t="n">
         <v>66</v>
@@ -6161,7 +6161,7 @@
         <v>5</v>
       </c>
       <c r="C358" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D358" t="n">
         <v>9</v>
@@ -6177,7 +6177,7 @@
         <v>6</v>
       </c>
       <c r="C359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D359" t="n">
         <v>8</v>
@@ -6193,7 +6193,7 @@
         <v>6</v>
       </c>
       <c r="C360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D360" t="n">
         <v>6</v>
@@ -6209,7 +6209,7 @@
         <v>7</v>
       </c>
       <c r="C361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D361" t="n">
         <v>10</v>
@@ -6225,7 +6225,7 @@
         <v>7</v>
       </c>
       <c r="C362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D362" t="n">
         <v>14</v>
@@ -6241,7 +6241,7 @@
         <v>7</v>
       </c>
       <c r="C363" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D363" t="n">
         <v>6</v>
@@ -6257,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D364" t="n">
         <v>89</v>
@@ -6273,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D365" t="n">
         <v>12</v>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D366" t="n">
         <v>19</v>
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D367" t="n">
         <v>29</v>
@@ -6321,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D368" t="n">
         <v>5</v>
@@ -6337,7 +6337,7 @@
         <v>2</v>
       </c>
       <c r="C369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D369" t="n">
         <v>8</v>
@@ -6353,7 +6353,7 @@
         <v>2</v>
       </c>
       <c r="C370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D370" t="n">
         <v>266</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="C371" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D371" t="n">
         <v>18</v>
@@ -6385,7 +6385,7 @@
         <v>2</v>
       </c>
       <c r="C372" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D372" t="n">
         <v>35</v>
@@ -6401,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="C373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D373" t="n">
         <v>64</v>
@@ -6417,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="C374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D374" t="n">
         <v>15</v>
@@ -6433,7 +6433,7 @@
         <v>3</v>
       </c>
       <c r="C375" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D375" t="n">
         <v>43</v>
@@ -6449,7 +6449,7 @@
         <v>3</v>
       </c>
       <c r="C376" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D376" t="n">
         <v>7</v>
@@ -6465,7 +6465,7 @@
         <v>3</v>
       </c>
       <c r="C377" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D377" t="n">
         <v>28</v>
@@ -6481,7 +6481,7 @@
         <v>4</v>
       </c>
       <c r="C378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D378" t="n">
         <v>22</v>
@@ -6497,7 +6497,7 @@
         <v>4</v>
       </c>
       <c r="C379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D379" t="n">
         <v>205</v>
@@ -6513,7 +6513,7 @@
         <v>4</v>
       </c>
       <c r="C380" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D380" t="n">
         <v>8</v>
@@ -6529,7 +6529,7 @@
         <v>4</v>
       </c>
       <c r="C381" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D381" t="n">
         <v>55</v>
@@ -6545,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D382" t="n">
         <v>500</v>
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D383" t="n">
         <v>10</v>
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D384" t="n">
         <v>24</v>
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D385" t="n">
         <v>332</v>
@@ -6609,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D386" t="n">
         <v>45</v>
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D387" t="n">
         <v>14</v>
@@ -6641,7 +6641,7 @@
         <v>2</v>
       </c>
       <c r="C388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D388" t="n">
         <v>7</v>
@@ -6657,7 +6657,7 @@
         <v>2</v>
       </c>
       <c r="C389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D389" t="n">
         <v>72</v>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D390" t="n">
         <v>47</v>
@@ -6689,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D391" t="n">
         <v>13</v>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D392" t="n">
         <v>49</v>
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D393" t="n">
         <v>15</v>
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D394" t="n">
         <v>18</v>
@@ -6753,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D395" t="n">
         <v>61</v>
@@ -6769,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D396" t="n">
         <v>55</v>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D397" t="n">
         <v>5</v>
@@ -6801,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D398" t="n">
         <v>54</v>
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D399" t="n">
         <v>76</v>
@@ -6833,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D400" t="n">
         <v>21</v>
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D401" t="n">
         <v>59</v>
@@ -6865,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D402" t="n">
         <v>16</v>
@@ -6881,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D403" t="n">
         <v>86</v>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D404" t="n">
         <v>7</v>
@@ -6913,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="C405" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D405" t="n">
         <v>9</v>
@@ -6929,7 +6929,7 @@
         <v>2</v>
       </c>
       <c r="C406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D406" t="n">
         <v>135</v>
@@ -6945,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="C407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D407" t="n">
         <v>133</v>
@@ -6961,7 +6961,7 @@
         <v>2</v>
       </c>
       <c r="C408" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D408" t="n">
         <v>41</v>
@@ -6977,7 +6977,7 @@
         <v>2</v>
       </c>
       <c r="C409" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D409" t="n">
         <v>370</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="C410" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D410" t="n">
         <v>11</v>
@@ -7009,7 +7009,7 @@
         <v>2</v>
       </c>
       <c r="C411" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D411" t="n">
         <v>38</v>
@@ -7025,7 +7025,7 @@
         <v>3</v>
       </c>
       <c r="C412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D412" t="n">
         <v>14</v>
@@ -7041,7 +7041,7 @@
         <v>3</v>
       </c>
       <c r="C413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D413" t="n">
         <v>65</v>
@@ -7057,7 +7057,7 @@
         <v>3</v>
       </c>
       <c r="C414" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D414" t="n">
         <v>6</v>
@@ -7073,7 +7073,7 @@
         <v>3</v>
       </c>
       <c r="C415" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D415" t="n">
         <v>121</v>
@@ -7089,7 +7089,7 @@
         <v>3</v>
       </c>
       <c r="C416" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D416" t="n">
         <v>92</v>
@@ -7105,7 +7105,7 @@
         <v>3</v>
       </c>
       <c r="C417" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D417" t="n">
         <v>13</v>
@@ -7121,7 +7121,7 @@
         <v>3</v>
       </c>
       <c r="C418" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D418" t="n">
         <v>14</v>
@@ -7137,7 +7137,7 @@
         <v>4</v>
       </c>
       <c r="C419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D419" t="n">
         <v>13</v>
@@ -7153,7 +7153,7 @@
         <v>4</v>
       </c>
       <c r="C420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D420" t="n">
         <v>118</v>
@@ -7169,7 +7169,7 @@
         <v>4</v>
       </c>
       <c r="C421" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D421" t="n">
         <v>19</v>
@@ -7185,7 +7185,7 @@
         <v>4</v>
       </c>
       <c r="C422" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D422" t="n">
         <v>34</v>
@@ -7201,7 +7201,7 @@
         <v>4</v>
       </c>
       <c r="C423" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D423" t="n">
         <v>533</v>
@@ -7217,7 +7217,7 @@
         <v>4</v>
       </c>
       <c r="C424" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D424" t="n">
         <v>20</v>
@@ -7233,7 +7233,7 @@
         <v>4</v>
       </c>
       <c r="C425" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D425" t="n">
         <v>13</v>
@@ -7249,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D426" t="n">
         <v>66</v>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="C427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D427" t="n">
         <v>22</v>
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D428" t="n">
         <v>21</v>
@@ -7297,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D429" t="n">
         <v>142</v>
@@ -7313,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D430" t="n">
         <v>226</v>
@@ -7329,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D431" t="n">
         <v>15</v>
@@ -7345,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D432" t="n">
         <v>45</v>
@@ -7361,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D433" t="n">
         <v>8</v>
@@ -7377,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D434" t="n">
         <v>50</v>
@@ -7393,7 +7393,7 @@
         <v>2</v>
       </c>
       <c r="C435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D435" t="n">
         <v>26</v>
@@ -7409,7 +7409,7 @@
         <v>2</v>
       </c>
       <c r="C436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D436" t="n">
         <v>6</v>
@@ -7425,7 +7425,7 @@
         <v>2</v>
       </c>
       <c r="C437" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D437" t="n">
         <v>14</v>
@@ -7441,7 +7441,7 @@
         <v>3</v>
       </c>
       <c r="C438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D438" t="n">
         <v>278</v>
@@ -7457,7 +7457,7 @@
         <v>3</v>
       </c>
       <c r="C439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D439" t="n">
         <v>8</v>
@@ -7473,7 +7473,7 @@
         <v>3</v>
       </c>
       <c r="C440" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D440" t="n">
         <v>24</v>
@@ -7489,7 +7489,7 @@
         <v>3</v>
       </c>
       <c r="C441" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D441" t="n">
         <v>9</v>
@@ -7505,7 +7505,7 @@
         <v>3</v>
       </c>
       <c r="C442" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D442" t="n">
         <v>24</v>
@@ -7521,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="C443" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D443" t="n">
         <v>17</v>
@@ -7537,7 +7537,7 @@
         <v>3</v>
       </c>
       <c r="C444" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D444" t="n">
         <v>72</v>
@@ -7553,7 +7553,7 @@
         <v>4</v>
       </c>
       <c r="C445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D445" t="n">
         <v>5</v>
@@ -7569,7 +7569,7 @@
         <v>4</v>
       </c>
       <c r="C446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D446" t="n">
         <v>26</v>
@@ -7585,7 +7585,7 @@
         <v>4</v>
       </c>
       <c r="C447" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D447" t="n">
         <v>28</v>
@@ -7601,7 +7601,7 @@
         <v>4</v>
       </c>
       <c r="C448" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D448" t="n">
         <v>10</v>
@@ -7617,7 +7617,7 @@
         <v>4</v>
       </c>
       <c r="C449" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D449" t="n">
         <v>15</v>
@@ -7633,7 +7633,7 @@
         <v>4</v>
       </c>
       <c r="C450" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D450" t="n">
         <v>50</v>
@@ -7649,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="C451" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D451" t="n">
         <v>14</v>
@@ -7665,7 +7665,7 @@
         <v>4</v>
       </c>
       <c r="C452" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D452" t="n">
         <v>21</v>
@@ -7681,7 +7681,7 @@
         <v>4</v>
       </c>
       <c r="C453" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D453" t="n">
         <v>152</v>
@@ -7697,7 +7697,7 @@
         <v>4</v>
       </c>
       <c r="C454" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D454" t="n">
         <v>105</v>
@@ -7713,7 +7713,7 @@
         <v>4</v>
       </c>
       <c r="C455" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D455" t="n">
         <v>12</v>
@@ -7729,7 +7729,7 @@
         <v>5</v>
       </c>
       <c r="C456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D456" t="n">
         <v>101</v>
@@ -7745,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="C457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D457" t="n">
         <v>63</v>
@@ -7761,7 +7761,7 @@
         <v>5</v>
       </c>
       <c r="C458" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D458" t="n">
         <v>43</v>
@@ -7777,7 +7777,7 @@
         <v>5</v>
       </c>
       <c r="C459" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D459" t="n">
         <v>5</v>
@@ -7793,7 +7793,7 @@
         <v>6</v>
       </c>
       <c r="C460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D460" t="n">
         <v>32</v>
@@ -7809,7 +7809,7 @@
         <v>6</v>
       </c>
       <c r="C461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D461" t="n">
         <v>17</v>
@@ -7825,7 +7825,7 @@
         <v>6</v>
       </c>
       <c r="C462" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D462" t="n">
         <v>13</v>
@@ -7841,7 +7841,7 @@
         <v>6</v>
       </c>
       <c r="C463" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D463" t="n">
         <v>59</v>
@@ -7857,7 +7857,7 @@
         <v>6</v>
       </c>
       <c r="C464" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D464" t="n">
         <v>54</v>
@@ -7873,7 +7873,7 @@
         <v>6</v>
       </c>
       <c r="C465" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D465" t="n">
         <v>377</v>
@@ -7889,7 +7889,7 @@
         <v>6</v>
       </c>
       <c r="C466" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D466" t="n">
         <v>7</v>
@@ -7905,7 +7905,7 @@
         <v>7</v>
       </c>
       <c r="C467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D467" t="n">
         <v>22</v>
@@ -7921,7 +7921,7 @@
         <v>7</v>
       </c>
       <c r="C468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D468" t="n">
         <v>15</v>
@@ -7937,7 +7937,7 @@
         <v>7</v>
       </c>
       <c r="C469" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D469" t="n">
         <v>24</v>
@@ -7953,7 +7953,7 @@
         <v>7</v>
       </c>
       <c r="C470" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D470" t="n">
         <v>707</v>
@@ -7969,7 +7969,7 @@
         <v>7</v>
       </c>
       <c r="C471" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D471" t="n">
         <v>118</v>
@@ -7985,7 +7985,7 @@
         <v>8</v>
       </c>
       <c r="C472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D472" t="n">
         <v>779</v>
@@ -8001,7 +8001,7 @@
         <v>8</v>
       </c>
       <c r="C473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D473" t="n">
         <v>29</v>
@@ -8017,7 +8017,7 @@
         <v>8</v>
       </c>
       <c r="C474" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D474" t="n">
         <v>14</v>
@@ -8033,7 +8033,7 @@
         <v>8</v>
       </c>
       <c r="C475" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D475" t="n">
         <v>16</v>
@@ -8049,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D476" t="n">
         <v>32</v>
@@ -8065,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D477" t="n">
         <v>5</v>
@@ -8081,7 +8081,7 @@
         <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D478" t="n">
         <v>40</v>
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D479" t="n">
         <v>47</v>
@@ -8113,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D480" t="n">
         <v>137</v>
@@ -8129,7 +8129,7 @@
         <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D481" t="n">
         <v>15</v>
@@ -8145,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D482" t="n">
         <v>6</v>
@@ -8161,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D483" t="n">
         <v>107</v>
@@ -8177,7 +8177,7 @@
         <v>2</v>
       </c>
       <c r="C484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D484" t="n">
         <v>1341</v>
@@ -8193,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="C485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D485" t="n">
         <v>9</v>
@@ -8209,7 +8209,7 @@
         <v>3</v>
       </c>
       <c r="C486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D486" t="n">
         <v>1285</v>
@@ -8225,7 +8225,7 @@
         <v>3</v>
       </c>
       <c r="C487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D487" t="n">
         <v>5</v>
@@ -8241,7 +8241,7 @@
         <v>4</v>
       </c>
       <c r="C488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D488" t="n">
         <v>78</v>
@@ -8257,7 +8257,7 @@
         <v>4</v>
       </c>
       <c r="C489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D489" t="n">
         <v>6</v>
@@ -8273,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="C490" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D490" t="n">
         <v>10</v>
@@ -8289,7 +8289,7 @@
         <v>4</v>
       </c>
       <c r="C491" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D491" t="n">
         <v>12</v>
@@ -8305,7 +8305,7 @@
         <v>4</v>
       </c>
       <c r="C492" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D492" t="n">
         <v>5</v>
@@ -8321,7 +8321,7 @@
         <v>4</v>
       </c>
       <c r="C493" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D493" t="n">
         <v>10</v>
@@ -8337,7 +8337,7 @@
         <v>4</v>
       </c>
       <c r="C494" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D494" t="n">
         <v>7</v>
@@ -8353,7 +8353,7 @@
         <v>4</v>
       </c>
       <c r="C495" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D495" t="n">
         <v>9</v>
@@ -8369,7 +8369,7 @@
         <v>4</v>
       </c>
       <c r="C496" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D496" t="n">
         <v>27</v>
@@ -8385,7 +8385,7 @@
         <v>4</v>
       </c>
       <c r="C497" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D497" t="n">
         <v>13</v>
@@ -8401,7 +8401,7 @@
         <v>4</v>
       </c>
       <c r="C498" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D498" t="n">
         <v>23</v>
@@ -8417,7 +8417,7 @@
         <v>5</v>
       </c>
       <c r="C499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D499" t="n">
         <v>351</v>
@@ -8433,7 +8433,7 @@
         <v>5</v>
       </c>
       <c r="C500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D500" t="n">
         <v>53</v>
@@ -8449,7 +8449,7 @@
         <v>5</v>
       </c>
       <c r="C501" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D501" t="n">
         <v>68</v>
@@ -8465,7 +8465,7 @@
         <v>5</v>
       </c>
       <c r="C502" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D502" t="n">
         <v>238</v>
@@ -8481,7 +8481,7 @@
         <v>5</v>
       </c>
       <c r="C503" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D503" t="n">
         <v>26</v>
@@ -8497,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D504" t="n">
         <v>15</v>
@@ -8513,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D505" t="n">
         <v>23</v>
@@ -8529,7 +8529,7 @@
         <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D506" t="n">
         <v>12</v>
@@ -8545,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D507" t="n">
         <v>12</v>
@@ -8561,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D508" t="n">
         <v>12</v>
@@ -8577,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D509" t="n">
         <v>92</v>
@@ -8593,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="C510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D510" t="n">
         <v>73</v>
@@ -8609,7 +8609,7 @@
         <v>2</v>
       </c>
       <c r="C511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D511" t="n">
         <v>317</v>
@@ -8625,7 +8625,7 @@
         <v>2</v>
       </c>
       <c r="C512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D512" t="n">
         <v>340</v>
@@ -8641,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="C513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D513" t="n">
         <v>10</v>
@@ -8657,7 +8657,7 @@
         <v>2</v>
       </c>
       <c r="C514" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D514" t="n">
         <v>5</v>
@@ -8673,7 +8673,7 @@
         <v>2</v>
       </c>
       <c r="C515" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D515" t="n">
         <v>7</v>
@@ -8689,7 +8689,7 @@
         <v>2</v>
       </c>
       <c r="C516" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D516" t="n">
         <v>10</v>
@@ -8705,7 +8705,7 @@
         <v>2</v>
       </c>
       <c r="C517" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D517" t="n">
         <v>20</v>
@@ -8721,7 +8721,7 @@
         <v>2</v>
       </c>
       <c r="C518" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D518" t="n">
         <v>45</v>
@@ -8737,7 +8737,7 @@
         <v>3</v>
       </c>
       <c r="C519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D519" t="n">
         <v>454</v>
@@ -8753,7 +8753,7 @@
         <v>3</v>
       </c>
       <c r="C520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D520" t="n">
         <v>281</v>
@@ -8769,7 +8769,7 @@
         <v>3</v>
       </c>
       <c r="C521" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D521" t="n">
         <v>14</v>
@@ -8785,7 +8785,7 @@
         <v>4</v>
       </c>
       <c r="C522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D522" t="n">
         <v>244</v>
@@ -8801,7 +8801,7 @@
         <v>4</v>
       </c>
       <c r="C523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D523" t="n">
         <v>11</v>
@@ -8817,7 +8817,7 @@
         <v>4</v>
       </c>
       <c r="C524" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D524" t="n">
         <v>23</v>
@@ -8833,7 +8833,7 @@
         <v>4</v>
       </c>
       <c r="C525" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D525" t="n">
         <v>10</v>
@@ -8849,7 +8849,7 @@
         <v>4</v>
       </c>
       <c r="C526" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D526" t="n">
         <v>6</v>
@@ -8865,7 +8865,7 @@
         <v>4</v>
       </c>
       <c r="C527" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D527" t="n">
         <v>5</v>
@@ -8881,7 +8881,7 @@
         <v>4</v>
       </c>
       <c r="C528" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D528" t="n">
         <v>143</v>
@@ -8897,7 +8897,7 @@
         <v>5</v>
       </c>
       <c r="C529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D529" t="n">
         <v>6</v>
@@ -8913,7 +8913,7 @@
         <v>5</v>
       </c>
       <c r="C530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D530" t="n">
         <v>26</v>
@@ -8929,7 +8929,7 @@
         <v>5</v>
       </c>
       <c r="C531" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D531" t="n">
         <v>8</v>
@@ -8945,7 +8945,7 @@
         <v>5</v>
       </c>
       <c r="C532" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D532" t="n">
         <v>51</v>
@@ -8961,7 +8961,7 @@
         <v>5</v>
       </c>
       <c r="C533" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D533" t="n">
         <v>15</v>
@@ -8977,7 +8977,7 @@
         <v>5</v>
       </c>
       <c r="C534" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D534" t="n">
         <v>13</v>
@@ -8993,7 +8993,7 @@
         <v>5</v>
       </c>
       <c r="C535" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D535" t="n">
         <v>11</v>
@@ -9009,7 +9009,7 @@
         <v>6</v>
       </c>
       <c r="C536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D536" t="n">
         <v>48</v>
@@ -9025,7 +9025,7 @@
         <v>6</v>
       </c>
       <c r="C537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D537" t="n">
         <v>944</v>
@@ -9041,7 +9041,7 @@
         <v>6</v>
       </c>
       <c r="C538" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D538" t="n">
         <v>25</v>
@@ -9057,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D539" t="n">
         <v>894</v>
@@ -9073,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D540" t="n">
         <v>7</v>
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D541" t="n">
         <v>23</v>
@@ -9105,7 +9105,7 @@
         <v>2</v>
       </c>
       <c r="C542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D542" t="n">
         <v>56</v>
@@ -9121,7 +9121,7 @@
         <v>2</v>
       </c>
       <c r="C543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D543" t="n">
         <v>12</v>
@@ -9137,7 +9137,7 @@
         <v>3</v>
       </c>
       <c r="C544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D544" t="n">
         <v>10</v>
@@ -9153,7 +9153,7 @@
         <v>3</v>
       </c>
       <c r="C545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D545" t="n">
         <v>5</v>
@@ -9169,7 +9169,7 @@
         <v>3</v>
       </c>
       <c r="C546" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D546" t="n">
         <v>8</v>
@@ -9185,7 +9185,7 @@
         <v>3</v>
       </c>
       <c r="C547" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D547" t="n">
         <v>50</v>
@@ -9201,7 +9201,7 @@
         <v>3</v>
       </c>
       <c r="C548" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D548" t="n">
         <v>19</v>
@@ -9217,7 +9217,7 @@
         <v>3</v>
       </c>
       <c r="C549" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D549" t="n">
         <v>7</v>
@@ -9233,7 +9233,7 @@
         <v>3</v>
       </c>
       <c r="C550" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D550" t="n">
         <v>7</v>
@@ -9249,7 +9249,7 @@
         <v>3</v>
       </c>
       <c r="C551" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D551" t="n">
         <v>117</v>
@@ -9265,7 +9265,7 @@
         <v>3</v>
       </c>
       <c r="C552" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D552" t="n">
         <v>6</v>
@@ -9281,7 +9281,7 @@
         <v>3</v>
       </c>
       <c r="C553" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D553" t="n">
         <v>37</v>
@@ -9297,7 +9297,7 @@
         <v>3</v>
       </c>
       <c r="C554" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D554" t="n">
         <v>28</v>
@@ -9313,7 +9313,7 @@
         <v>4</v>
       </c>
       <c r="C555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D555" t="n">
         <v>9</v>
@@ -9329,7 +9329,7 @@
         <v>4</v>
       </c>
       <c r="C556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D556" t="n">
         <v>168</v>
@@ -9345,7 +9345,7 @@
         <v>4</v>
       </c>
       <c r="C557" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D557" t="n">
         <v>63</v>
@@ -9361,7 +9361,7 @@
         <v>4</v>
       </c>
       <c r="C558" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D558" t="n">
         <v>96</v>
@@ -9377,7 +9377,7 @@
         <v>4</v>
       </c>
       <c r="C559" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D559" t="n">
         <v>179</v>
@@ -9393,7 +9393,7 @@
         <v>4</v>
       </c>
       <c r="C560" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D560" t="n">
         <v>74</v>
@@ -9409,7 +9409,7 @@
         <v>4</v>
       </c>
       <c r="C561" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D561" t="n">
         <v>5</v>
@@ -9425,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D562" t="n">
         <v>1331</v>
@@ -9441,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D563" t="n">
         <v>60</v>
@@ -9457,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="C564" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D564" t="n">
         <v>28</v>
@@ -9473,7 +9473,7 @@
         <v>2</v>
       </c>
       <c r="C565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D565" t="n">
         <v>63</v>
@@ -9489,7 +9489,7 @@
         <v>2</v>
       </c>
       <c r="C566" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D566" t="n">
         <v>20</v>
@@ -9505,7 +9505,7 @@
         <v>2</v>
       </c>
       <c r="C567" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D567" t="n">
         <v>131</v>
@@ -9521,7 +9521,7 @@
         <v>2</v>
       </c>
       <c r="C568" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D568" t="n">
         <v>15</v>
@@ -9537,7 +9537,7 @@
         <v>2</v>
       </c>
       <c r="C569" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D569" t="n">
         <v>5</v>
@@ -9553,7 +9553,7 @@
         <v>2</v>
       </c>
       <c r="C570" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D570" t="n">
         <v>37</v>
@@ -9569,7 +9569,7 @@
         <v>2</v>
       </c>
       <c r="C571" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D571" t="n">
         <v>56</v>
@@ -9585,7 +9585,7 @@
         <v>2</v>
       </c>
       <c r="C572" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D572" t="n">
         <v>116</v>
@@ -9601,7 +9601,7 @@
         <v>2</v>
       </c>
       <c r="C573" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D573" t="n">
         <v>21</v>
@@ -9617,7 +9617,7 @@
         <v>2</v>
       </c>
       <c r="C574" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D574" t="n">
         <v>25</v>
@@ -9633,7 +9633,7 @@
         <v>2</v>
       </c>
       <c r="C575" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D575" t="n">
         <v>7</v>
@@ -9649,7 +9649,7 @@
         <v>2</v>
       </c>
       <c r="C576" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D576" t="n">
         <v>25</v>
@@ -9665,7 +9665,7 @@
         <v>3</v>
       </c>
       <c r="C577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D577" t="n">
         <v>572</v>
@@ -9681,7 +9681,7 @@
         <v>3</v>
       </c>
       <c r="C578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D578" t="n">
         <v>70</v>
@@ -9697,7 +9697,7 @@
         <v>3</v>
       </c>
       <c r="C579" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D579" t="n">
         <v>36</v>
@@ -9713,7 +9713,7 @@
         <v>3</v>
       </c>
       <c r="C580" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D580" t="n">
         <v>123</v>
@@ -9729,7 +9729,7 @@
         <v>3</v>
       </c>
       <c r="C581" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D581" t="n">
         <v>188</v>
@@ -9745,7 +9745,7 @@
         <v>4</v>
       </c>
       <c r="C582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D582" t="n">
         <v>45</v>
@@ -9761,7 +9761,7 @@
         <v>4</v>
       </c>
       <c r="C583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D583" t="n">
         <v>496</v>
@@ -9777,7 +9777,7 @@
         <v>4</v>
       </c>
       <c r="C584" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D584" t="n">
         <v>21</v>
@@ -9793,7 +9793,7 @@
         <v>5</v>
       </c>
       <c r="C585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D585" t="n">
         <v>11</v>
@@ -9809,7 +9809,7 @@
         <v>5</v>
       </c>
       <c r="C586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D586" t="n">
         <v>80</v>
@@ -9825,7 +9825,7 @@
         <v>5</v>
       </c>
       <c r="C587" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D587" t="n">
         <v>6</v>
@@ -9841,7 +9841,7 @@
         <v>5</v>
       </c>
       <c r="C588" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D588" t="n">
         <v>87</v>
@@ -9857,7 +9857,7 @@
         <v>5</v>
       </c>
       <c r="C589" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D589" t="n">
         <v>49</v>
@@ -9873,7 +9873,7 @@
         <v>5</v>
       </c>
       <c r="C590" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D590" t="n">
         <v>54</v>
@@ -9889,7 +9889,7 @@
         <v>5</v>
       </c>
       <c r="C591" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D591" t="n">
         <v>38</v>
@@ -9905,7 +9905,7 @@
         <v>5</v>
       </c>
       <c r="C592" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D592" t="n">
         <v>25</v>
@@ -9921,7 +9921,7 @@
         <v>5</v>
       </c>
       <c r="C593" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D593" t="n">
         <v>148</v>
@@ -9937,7 +9937,7 @@
         <v>6</v>
       </c>
       <c r="C594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D594" t="n">
         <v>128</v>
@@ -9953,7 +9953,7 @@
         <v>6</v>
       </c>
       <c r="C595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D595" t="n">
         <v>31</v>
@@ -9969,7 +9969,7 @@
         <v>7</v>
       </c>
       <c r="C596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D596" t="n">
         <v>61</v>
@@ -9985,7 +9985,7 @@
         <v>7</v>
       </c>
       <c r="C597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D597" t="n">
         <v>331</v>
@@ -10001,7 +10001,7 @@
         <v>7</v>
       </c>
       <c r="C598" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D598" t="n">
         <v>24</v>
@@ -10017,7 +10017,7 @@
         <v>7</v>
       </c>
       <c r="C599" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D599" t="n">
         <v>26</v>
@@ -10033,7 +10033,7 @@
         <v>7</v>
       </c>
       <c r="C600" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D600" t="n">
         <v>127</v>
@@ -10049,7 +10049,7 @@
         <v>7</v>
       </c>
       <c r="C601" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D601" t="n">
         <v>37</v>
@@ -10065,7 +10065,7 @@
         <v>7</v>
       </c>
       <c r="C602" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D602" t="n">
         <v>120</v>
@@ -10081,7 +10081,7 @@
         <v>7</v>
       </c>
       <c r="C603" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D603" t="n">
         <v>78</v>
@@ -10097,7 +10097,7 @@
         <v>8</v>
       </c>
       <c r="C604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D604" t="n">
         <v>295</v>
@@ -10113,7 +10113,7 @@
         <v>8</v>
       </c>
       <c r="C605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D605" t="n">
         <v>94</v>
@@ -10129,7 +10129,7 @@
         <v>8</v>
       </c>
       <c r="C606" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D606" t="n">
         <v>7</v>
@@ -10145,7 +10145,7 @@
         <v>10</v>
       </c>
       <c r="C607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D607" t="n">
         <v>16</v>
@@ -10161,7 +10161,7 @@
         <v>10</v>
       </c>
       <c r="C608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D608" t="n">
         <v>15</v>
@@ -10177,7 +10177,7 @@
         <v>10</v>
       </c>
       <c r="C609" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D609" t="n">
         <v>6</v>
@@ -10193,7 +10193,7 @@
         <v>10</v>
       </c>
       <c r="C610" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D610" t="n">
         <v>9</v>
@@ -10209,7 +10209,7 @@
         <v>10</v>
       </c>
       <c r="C611" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D611" t="n">
         <v>31</v>
@@ -10225,7 +10225,7 @@
         <v>10</v>
       </c>
       <c r="C612" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D612" t="n">
         <v>26</v>
@@ -10241,7 +10241,7 @@
         <v>10</v>
       </c>
       <c r="C613" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D613" t="n">
         <v>17</v>
@@ -10257,7 +10257,7 @@
         <v>10</v>
       </c>
       <c r="C614" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D614" t="n">
         <v>16</v>
@@ -10273,7 +10273,7 @@
         <v>10</v>
       </c>
       <c r="C615" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D615" t="n">
         <v>67</v>
@@ -10289,7 +10289,7 @@
         <v>10</v>
       </c>
       <c r="C616" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D616" t="n">
         <v>6</v>
@@ -10305,7 +10305,7 @@
         <v>10</v>
       </c>
       <c r="C617" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D617" t="n">
         <v>91</v>
@@ -10321,7 +10321,7 @@
         <v>10</v>
       </c>
       <c r="C618" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D618" t="n">
         <v>34</v>
@@ -10337,7 +10337,7 @@
         <v>10</v>
       </c>
       <c r="C619" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D619" t="n">
         <v>26</v>
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D620" t="n">
         <v>21</v>
@@ -10369,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="C621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D621" t="n">
         <v>8</v>
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D622" t="n">
         <v>35</v>
@@ -10401,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D623" t="n">
         <v>84</v>
@@ -10417,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D624" t="n">
         <v>12</v>
@@ -10433,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D625" t="n">
         <v>24</v>
@@ -10449,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D626" t="n">
         <v>36</v>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="C627" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D627" t="n">
         <v>202</v>
@@ -10481,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="C628" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D628" t="n">
         <v>15</v>
@@ -10497,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D629" t="n">
         <v>9</v>
@@ -10513,7 +10513,7 @@
         <v>2</v>
       </c>
       <c r="C630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D630" t="n">
         <v>776</v>
@@ -10529,7 +10529,7 @@
         <v>2</v>
       </c>
       <c r="C631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D631" t="n">
         <v>5</v>
@@ -10545,7 +10545,7 @@
         <v>2</v>
       </c>
       <c r="C632" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D632" t="n">
         <v>12</v>
@@ -10561,7 +10561,7 @@
         <v>2</v>
       </c>
       <c r="C633" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D633" t="n">
         <v>199</v>
@@ -10577,7 +10577,7 @@
         <v>2</v>
       </c>
       <c r="C634" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D634" t="n">
         <v>20</v>
@@ -10593,7 +10593,7 @@
         <v>2</v>
       </c>
       <c r="C635" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D635" t="n">
         <v>8</v>
@@ -10609,7 +10609,7 @@
         <v>2</v>
       </c>
       <c r="C636" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D636" t="n">
         <v>9</v>
@@ -10625,7 +10625,7 @@
         <v>2</v>
       </c>
       <c r="C637" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D637" t="n">
         <v>54</v>
@@ -10641,7 +10641,7 @@
         <v>2</v>
       </c>
       <c r="C638" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D638" t="n">
         <v>24</v>
@@ -10657,7 +10657,7 @@
         <v>3</v>
       </c>
       <c r="C639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D639" t="n">
         <v>6</v>
@@ -10673,7 +10673,7 @@
         <v>3</v>
       </c>
       <c r="C640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D640" t="n">
         <v>18</v>
@@ -10689,7 +10689,7 @@
         <v>3</v>
       </c>
       <c r="C641" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D641" t="n">
         <v>6</v>
@@ -10705,7 +10705,7 @@
         <v>3</v>
       </c>
       <c r="C642" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D642" t="n">
         <v>98</v>
@@ -10721,7 +10721,7 @@
         <v>3</v>
       </c>
       <c r="C643" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D643" t="n">
         <v>229</v>
@@ -10737,7 +10737,7 @@
         <v>3</v>
       </c>
       <c r="C644" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D644" t="n">
         <v>60</v>
@@ -10753,7 +10753,7 @@
         <v>3</v>
       </c>
       <c r="C645" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D645" t="n">
         <v>12</v>
@@ -10769,7 +10769,7 @@
         <v>4</v>
       </c>
       <c r="C646" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D646" t="n">
         <v>98</v>
@@ -10785,7 +10785,7 @@
         <v>4</v>
       </c>
       <c r="C647" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D647" t="n">
         <v>10</v>
@@ -10801,7 +10801,7 @@
         <v>4</v>
       </c>
       <c r="C648" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D648" t="n">
         <v>16</v>
@@ -10817,7 +10817,7 @@
         <v>4</v>
       </c>
       <c r="C649" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D649" t="n">
         <v>422</v>
@@ -10833,7 +10833,7 @@
         <v>4</v>
       </c>
       <c r="C650" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D650" t="n">
         <v>14</v>
@@ -10849,7 +10849,7 @@
         <v>4</v>
       </c>
       <c r="C651" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D651" t="n">
         <v>23</v>
@@ -10865,7 +10865,7 @@
         <v>4</v>
       </c>
       <c r="C652" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D652" t="n">
         <v>31</v>
@@ -10881,7 +10881,7 @@
         <v>5</v>
       </c>
       <c r="C653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D653" t="n">
         <v>55</v>
@@ -10897,7 +10897,7 @@
         <v>5</v>
       </c>
       <c r="C654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D654" t="n">
         <v>316</v>
@@ -10913,7 +10913,7 @@
         <v>5</v>
       </c>
       <c r="C655" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D655" t="n">
         <v>116</v>
@@ -10929,7 +10929,7 @@
         <v>5</v>
       </c>
       <c r="C656" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D656" t="n">
         <v>11</v>
@@ -10945,7 +10945,7 @@
         <v>5</v>
       </c>
       <c r="C657" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D657" t="n">
         <v>93</v>
@@ -10961,7 +10961,7 @@
         <v>6</v>
       </c>
       <c r="C658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D658" t="n">
         <v>23</v>
@@ -10977,7 +10977,7 @@
         <v>6</v>
       </c>
       <c r="C659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D659" t="n">
         <v>8</v>
@@ -10993,7 +10993,7 @@
         <v>6</v>
       </c>
       <c r="C660" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D660" t="n">
         <v>28</v>
@@ -11009,7 +11009,7 @@
         <v>6</v>
       </c>
       <c r="C661" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D661" t="n">
         <v>21</v>
@@ -11025,7 +11025,7 @@
         <v>6</v>
       </c>
       <c r="C662" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D662" t="n">
         <v>605</v>
@@ -11041,7 +11041,7 @@
         <v>6</v>
       </c>
       <c r="C663" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D663" t="n">
         <v>7</v>
@@ -11057,7 +11057,7 @@
         <v>6</v>
       </c>
       <c r="C664" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D664" t="n">
         <v>8</v>
@@ -11073,7 +11073,7 @@
         <v>6</v>
       </c>
       <c r="C665" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D665" t="n">
         <v>8</v>
@@ -11089,7 +11089,7 @@
         <v>7</v>
       </c>
       <c r="C666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D666" t="n">
         <v>30</v>
@@ -11105,7 +11105,7 @@
         <v>7</v>
       </c>
       <c r="C667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D667" t="n">
         <v>14</v>
@@ -11121,7 +11121,7 @@
         <v>7</v>
       </c>
       <c r="C668" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D668" t="n">
         <v>476</v>
@@ -11137,7 +11137,7 @@
         <v>8</v>
       </c>
       <c r="C669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D669" t="n">
         <v>17</v>
@@ -11153,7 +11153,7 @@
         <v>8</v>
       </c>
       <c r="C670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D670" t="n">
         <v>15</v>
@@ -11169,7 +11169,7 @@
         <v>8</v>
       </c>
       <c r="C671" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D671" t="n">
         <v>21</v>
@@ -11185,7 +11185,7 @@
         <v>8</v>
       </c>
       <c r="C672" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D672" t="n">
         <v>13</v>
@@ -11201,7 +11201,7 @@
         <v>8</v>
       </c>
       <c r="C673" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D673" t="n">
         <v>25</v>
@@ -11217,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D674" t="n">
         <v>22</v>
@@ -11233,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D675" t="n">
         <v>222</v>
@@ -11249,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D676" t="n">
         <v>36</v>
@@ -11265,7 +11265,7 @@
         <v>1</v>
       </c>
       <c r="C677" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D677" t="n">
         <v>11</v>
@@ -11281,7 +11281,7 @@
         <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D678" t="n">
         <v>44</v>
@@ -11297,7 +11297,7 @@
         <v>2</v>
       </c>
       <c r="C679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D679" t="n">
         <v>243</v>
@@ -11313,7 +11313,7 @@
         <v>2</v>
       </c>
       <c r="C680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D680" t="n">
         <v>6</v>
@@ -11329,7 +11329,7 @@
         <v>2</v>
       </c>
       <c r="C681" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D681" t="n">
         <v>10</v>
@@ -11345,7 +11345,7 @@
         <v>2</v>
       </c>
       <c r="C682" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D682" t="n">
         <v>5</v>
@@ -11361,7 +11361,7 @@
         <v>2</v>
       </c>
       <c r="C683" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D683" t="n">
         <v>14</v>
@@ -11377,7 +11377,7 @@
         <v>2</v>
       </c>
       <c r="C684" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D684" t="n">
         <v>13</v>
@@ -11393,7 +11393,7 @@
         <v>2</v>
       </c>
       <c r="C685" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D685" t="n">
         <v>196</v>
@@ -11409,7 +11409,7 @@
         <v>2</v>
       </c>
       <c r="C686" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D686" t="n">
         <v>8</v>
@@ -11425,7 +11425,7 @@
         <v>2</v>
       </c>
       <c r="C687" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D687" t="n">
         <v>89</v>
@@ -11441,7 +11441,7 @@
         <v>2</v>
       </c>
       <c r="C688" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D688" t="n">
         <v>30</v>
@@ -11457,7 +11457,7 @@
         <v>2</v>
       </c>
       <c r="C689" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D689" t="n">
         <v>22</v>
@@ -11473,7 +11473,7 @@
         <v>2</v>
       </c>
       <c r="C690" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D690" t="n">
         <v>20</v>
@@ -11489,7 +11489,7 @@
         <v>3</v>
       </c>
       <c r="C691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D691" t="n">
         <v>992</v>
@@ -11505,7 +11505,7 @@
         <v>4</v>
       </c>
       <c r="C692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D692" t="n">
         <v>19</v>
@@ -11521,7 +11521,7 @@
         <v>4</v>
       </c>
       <c r="C693" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D693" t="n">
         <v>5</v>
@@ -11537,7 +11537,7 @@
         <v>4</v>
       </c>
       <c r="C694" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D694" t="n">
         <v>13</v>
@@ -11553,7 +11553,7 @@
         <v>4</v>
       </c>
       <c r="C695" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D695" t="n">
         <v>33</v>
@@ -11569,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="C696" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D696" t="n">
         <v>68</v>
@@ -11585,7 +11585,7 @@
         <v>4</v>
       </c>
       <c r="C697" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D697" t="n">
         <v>57</v>
@@ -11601,7 +11601,7 @@
         <v>4</v>
       </c>
       <c r="C698" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D698" t="n">
         <v>18</v>
@@ -11617,7 +11617,7 @@
         <v>4</v>
       </c>
       <c r="C699" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D699" t="n">
         <v>316</v>
@@ -11633,7 +11633,7 @@
         <v>6</v>
       </c>
       <c r="C700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D700" t="n">
         <v>12</v>
@@ -11649,7 +11649,7 @@
         <v>6</v>
       </c>
       <c r="C701" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D701" t="n">
         <v>61</v>
@@ -11665,7 +11665,7 @@
         <v>6</v>
       </c>
       <c r="C702" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D702" t="n">
         <v>345</v>
@@ -11681,7 +11681,7 @@
         <v>6</v>
       </c>
       <c r="C703" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D703" t="n">
         <v>62</v>
@@ -11697,7 +11697,7 @@
         <v>7</v>
       </c>
       <c r="C704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D704" t="n">
         <v>71</v>
@@ -11713,7 +11713,7 @@
         <v>7</v>
       </c>
       <c r="C705" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D705" t="n">
         <v>834</v>
@@ -11729,7 +11729,7 @@
         <v>7</v>
       </c>
       <c r="C706" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D706" t="n">
         <v>5</v>
@@ -11745,7 +11745,7 @@
         <v>7</v>
       </c>
       <c r="C707" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D707" t="n">
         <v>46</v>
@@ -11761,7 +11761,7 @@
         <v>7</v>
       </c>
       <c r="C708" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D708" t="n">
         <v>91</v>
@@ -11777,7 +11777,7 @@
         <v>8</v>
       </c>
       <c r="C709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D709" t="n">
         <v>12</v>
@@ -11793,7 +11793,7 @@
         <v>8</v>
       </c>
       <c r="C710" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D710" t="n">
         <v>13</v>
@@ -11809,7 +11809,7 @@
         <v>8</v>
       </c>
       <c r="C711" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D711" t="n">
         <v>11</v>
@@ -11825,7 +11825,7 @@
         <v>8</v>
       </c>
       <c r="C712" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D712" t="n">
         <v>24</v>
@@ -11841,7 +11841,7 @@
         <v>8</v>
       </c>
       <c r="C713" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D713" t="n">
         <v>18</v>
@@ -11857,7 +11857,7 @@
         <v>8</v>
       </c>
       <c r="C714" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D714" t="n">
         <v>16</v>
@@ -11873,7 +11873,7 @@
         <v>8</v>
       </c>
       <c r="C715" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D715" t="n">
         <v>8</v>
@@ -11889,7 +11889,7 @@
         <v>8</v>
       </c>
       <c r="C716" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D716" t="n">
         <v>33</v>
@@ -11905,7 +11905,7 @@
         <v>8</v>
       </c>
       <c r="C717" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D717" t="n">
         <v>153</v>
@@ -11921,7 +11921,7 @@
         <v>8</v>
       </c>
       <c r="C718" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D718" t="n">
         <v>8</v>
@@ -11937,7 +11937,7 @@
         <v>8</v>
       </c>
       <c r="C719" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D719" t="n">
         <v>6</v>
@@ -11953,7 +11953,7 @@
         <v>9</v>
       </c>
       <c r="C720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D720" t="n">
         <v>29</v>
@@ -11969,7 +11969,7 @@
         <v>9</v>
       </c>
       <c r="C721" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D721" t="n">
         <v>27</v>
@@ -11985,7 +11985,7 @@
         <v>9</v>
       </c>
       <c r="C722" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D722" t="n">
         <v>22</v>
@@ -12001,7 +12001,7 @@
         <v>9</v>
       </c>
       <c r="C723" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D723" t="n">
         <v>23</v>
@@ -12017,7 +12017,7 @@
         <v>9</v>
       </c>
       <c r="C724" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D724" t="n">
         <v>117</v>
@@ -12033,7 +12033,7 @@
         <v>9</v>
       </c>
       <c r="C725" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D725" t="n">
         <v>68</v>
@@ -12049,7 +12049,7 @@
         <v>9</v>
       </c>
       <c r="C726" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D726" t="n">
         <v>5</v>
@@ -12065,7 +12065,7 @@
         <v>9</v>
       </c>
       <c r="C727" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D727" t="n">
         <v>5</v>
@@ -12081,7 +12081,7 @@
         <v>11</v>
       </c>
       <c r="C728" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D728" t="n">
         <v>14</v>
@@ -12097,7 +12097,7 @@
         <v>11</v>
       </c>
       <c r="C729" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D729" t="n">
         <v>152</v>
@@ -12113,7 +12113,7 @@
         <v>11</v>
       </c>
       <c r="C730" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D730" t="n">
         <v>32</v>
@@ -12129,7 +12129,7 @@
         <v>11</v>
       </c>
       <c r="C731" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D731" t="n">
         <v>41</v>
@@ -12145,7 +12145,7 @@
         <v>11</v>
       </c>
       <c r="C732" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D732" t="n">
         <v>20</v>
@@ -12161,7 +12161,7 @@
         <v>11</v>
       </c>
       <c r="C733" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D733" t="n">
         <v>7</v>
@@ -12177,7 +12177,7 @@
         <v>11</v>
       </c>
       <c r="C734" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D734" t="n">
         <v>15</v>
@@ -12193,7 +12193,7 @@
         <v>11</v>
       </c>
       <c r="C735" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D735" t="n">
         <v>34</v>
@@ -12209,7 +12209,7 @@
         <v>11</v>
       </c>
       <c r="C736" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D736" t="n">
         <v>5</v>
@@ -12225,7 +12225,7 @@
         <v>11</v>
       </c>
       <c r="C737" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D737" t="n">
         <v>20</v>
@@ -12241,7 +12241,7 @@
         <v>11</v>
       </c>
       <c r="C738" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D738" t="n">
         <v>121</v>
@@ -12257,7 +12257,7 @@
         <v>11</v>
       </c>
       <c r="C739" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D739" t="n">
         <v>23</v>
@@ -12273,7 +12273,7 @@
         <v>11</v>
       </c>
       <c r="C740" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D740" t="n">
         <v>19</v>
@@ -12289,7 +12289,7 @@
         <v>11</v>
       </c>
       <c r="C741" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D741" t="n">
         <v>12</v>
@@ -12305,7 +12305,7 @@
         <v>11</v>
       </c>
       <c r="C742" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D742" t="n">
         <v>17</v>
@@ -12321,7 +12321,7 @@
         <v>11</v>
       </c>
       <c r="C743" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D743" t="n">
         <v>31</v>
@@ -12337,7 +12337,7 @@
         <v>11</v>
       </c>
       <c r="C744" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D744" t="n">
         <v>47</v>
@@ -12353,7 +12353,7 @@
         <v>11</v>
       </c>
       <c r="C745" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D745" t="n">
         <v>40</v>
@@ -12369,7 +12369,7 @@
         <v>12</v>
       </c>
       <c r="C746" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D746" t="n">
         <v>43</v>
@@ -12385,7 +12385,7 @@
         <v>12</v>
       </c>
       <c r="C747" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D747" t="n">
         <v>871</v>
@@ -12401,7 +12401,7 @@
         <v>13</v>
       </c>
       <c r="C748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D748" t="n">
         <v>985</v>
@@ -12417,7 +12417,7 @@
         <v>13</v>
       </c>
       <c r="C749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D749" t="n">
         <v>17</v>
@@ -12433,7 +12433,7 @@
         <v>13</v>
       </c>
       <c r="C750" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D750" t="n">
         <v>63</v>
@@ -12449,7 +12449,7 @@
         <v>13</v>
       </c>
       <c r="C751" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D751" t="n">
         <v>9</v>
@@ -12465,7 +12465,7 @@
         <v>13</v>
       </c>
       <c r="C752" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D752" t="n">
         <v>15</v>
@@ -12481,7 +12481,7 @@
         <v>14</v>
       </c>
       <c r="C753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D753" t="n">
         <v>18</v>
@@ -12497,7 +12497,7 @@
         <v>14</v>
       </c>
       <c r="C754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D754" t="n">
         <v>13</v>
@@ -12513,7 +12513,7 @@
         <v>14</v>
       </c>
       <c r="C755" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D755" t="n">
         <v>185</v>
@@ -12529,7 +12529,7 @@
         <v>14</v>
       </c>
       <c r="C756" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D756" t="n">
         <v>28</v>
@@ -12545,7 +12545,7 @@
         <v>14</v>
       </c>
       <c r="C757" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D757" t="n">
         <v>9</v>
@@ -12561,7 +12561,7 @@
         <v>14</v>
       </c>
       <c r="C758" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D758" t="n">
         <v>20</v>
@@ -12577,7 +12577,7 @@
         <v>14</v>
       </c>
       <c r="C759" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D759" t="n">
         <v>21</v>
@@ -12593,7 +12593,7 @@
         <v>14</v>
       </c>
       <c r="C760" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D760" t="n">
         <v>42</v>
@@ -12609,7 +12609,7 @@
         <v>14</v>
       </c>
       <c r="C761" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D761" t="n">
         <v>35</v>
@@ -12625,7 +12625,7 @@
         <v>15</v>
       </c>
       <c r="C762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D762" t="n">
         <v>5</v>
@@ -12641,7 +12641,7 @@
         <v>15</v>
       </c>
       <c r="C763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D763" t="n">
         <v>9</v>
@@ -12657,7 +12657,7 @@
         <v>15</v>
       </c>
       <c r="C764" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D764" t="n">
         <v>8</v>
@@ -12673,7 +12673,7 @@
         <v>15</v>
       </c>
       <c r="C765" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D765" t="n">
         <v>13</v>
@@ -12689,7 +12689,7 @@
         <v>15</v>
       </c>
       <c r="C766" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D766" t="n">
         <v>244</v>
@@ -12705,7 +12705,7 @@
         <v>15</v>
       </c>
       <c r="C767" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D767" t="n">
         <v>30</v>
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="C768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D768" t="n">
         <v>9</v>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
       <c r="C769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D769" t="n">
         <v>22</v>
@@ -12753,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="C770" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D770" t="n">
         <v>48</v>
@@ -12769,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="C771" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D771" t="n">
         <v>25</v>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="C772" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D772" t="n">
         <v>340</v>
@@ -12801,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="C773" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D773" t="n">
         <v>96</v>
@@ -12817,7 +12817,7 @@
         <v>1</v>
       </c>
       <c r="C774" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D774" t="n">
         <v>56</v>
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="C775" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D775" t="n">
         <v>7</v>
@@ -12849,7 +12849,7 @@
         <v>2</v>
       </c>
       <c r="C776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D776" t="n">
         <v>112</v>
@@ -12865,7 +12865,7 @@
         <v>2</v>
       </c>
       <c r="C777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D777" t="n">
         <v>17</v>
@@ -12881,7 +12881,7 @@
         <v>2</v>
       </c>
       <c r="C778" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D778" t="n">
         <v>13</v>
@@ -12897,7 +12897,7 @@
         <v>2</v>
       </c>
       <c r="C779" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D779" t="n">
         <v>62</v>
@@ -12913,7 +12913,7 @@
         <v>2</v>
       </c>
       <c r="C780" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D780" t="n">
         <v>42</v>
@@ -12929,7 +12929,7 @@
         <v>2</v>
       </c>
       <c r="C781" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D781" t="n">
         <v>196</v>
@@ -12945,7 +12945,7 @@
         <v>2</v>
       </c>
       <c r="C782" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D782" t="n">
         <v>16</v>
@@ -12961,7 +12961,7 @@
         <v>2</v>
       </c>
       <c r="C783" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D783" t="n">
         <v>36</v>
@@ -12977,7 +12977,7 @@
         <v>2</v>
       </c>
       <c r="C784" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D784" t="n">
         <v>11</v>
@@ -12993,7 +12993,7 @@
         <v>2</v>
       </c>
       <c r="C785" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D785" t="n">
         <v>325</v>
@@ -13009,7 +13009,7 @@
         <v>2</v>
       </c>
       <c r="C786" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D786" t="n">
         <v>13</v>
@@ -13025,7 +13025,7 @@
         <v>3</v>
       </c>
       <c r="C787" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D787" t="n">
         <v>8</v>
@@ -13041,7 +13041,7 @@
         <v>3</v>
       </c>
       <c r="C788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D788" t="n">
         <v>16</v>
@@ -13057,7 +13057,7 @@
         <v>3</v>
       </c>
       <c r="C789" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D789" t="n">
         <v>5</v>
@@ -13073,7 +13073,7 @@
         <v>3</v>
       </c>
       <c r="C790" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D790" t="n">
         <v>339</v>
@@ -13089,7 +13089,7 @@
         <v>3</v>
       </c>
       <c r="C791" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D791" t="n">
         <v>150</v>
@@ -13105,7 +13105,7 @@
         <v>3</v>
       </c>
       <c r="C792" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D792" t="n">
         <v>13</v>
@@ -13121,7 +13121,7 @@
         <v>3</v>
       </c>
       <c r="C793" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D793" t="n">
         <v>44</v>
@@ -13137,7 +13137,7 @@
         <v>4</v>
       </c>
       <c r="C794" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D794" t="n">
         <v>421</v>
@@ -13153,7 +13153,7 @@
         <v>4</v>
       </c>
       <c r="C795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D795" t="n">
         <v>94</v>
@@ -13169,7 +13169,7 @@
         <v>4</v>
       </c>
       <c r="C796" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D796" t="n">
         <v>48</v>
@@ -13185,7 +13185,7 @@
         <v>4</v>
       </c>
       <c r="C797" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D797" t="n">
         <v>157</v>
@@ -13201,7 +13201,7 @@
         <v>4</v>
       </c>
       <c r="C798" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D798" t="n">
         <v>9</v>
@@ -13217,7 +13217,7 @@
         <v>4</v>
       </c>
       <c r="C799" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D799" t="n">
         <v>14</v>
@@ -13233,7 +13233,7 @@
         <v>4</v>
       </c>
       <c r="C800" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D800" t="n">
         <v>5</v>
@@ -13249,7 +13249,7 @@
         <v>5</v>
       </c>
       <c r="C801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D801" t="n">
         <v>5</v>
@@ -13265,7 +13265,7 @@
         <v>5</v>
       </c>
       <c r="C802" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D802" t="n">
         <v>34</v>
@@ -13281,7 +13281,7 @@
         <v>5</v>
       </c>
       <c r="C803" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D803" t="n">
         <v>125</v>
@@ -13297,7 +13297,7 @@
         <v>5</v>
       </c>
       <c r="C804" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D804" t="n">
         <v>41</v>
@@ -13313,7 +13313,7 @@
         <v>5</v>
       </c>
       <c r="C805" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D805" t="n">
         <v>385</v>
@@ -13329,7 +13329,7 @@
         <v>5</v>
       </c>
       <c r="C806" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D806" t="n">
         <v>221</v>
@@ -13345,7 +13345,7 @@
         <v>5</v>
       </c>
       <c r="C807" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D807" t="n">
         <v>34</v>
@@ -13361,7 +13361,7 @@
         <v>6</v>
       </c>
       <c r="C808" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D808" t="n">
         <v>52</v>
@@ -13377,7 +13377,7 @@
         <v>6</v>
       </c>
       <c r="C809" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D809" t="n">
         <v>553</v>
@@ -13393,7 +13393,7 @@
         <v>6</v>
       </c>
       <c r="C810" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D810" t="n">
         <v>28</v>
@@ -13409,7 +13409,7 @@
         <v>6</v>
       </c>
       <c r="C811" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D811" t="n">
         <v>37</v>
@@ -13425,7 +13425,7 @@
         <v>6</v>
       </c>
       <c r="C812" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D812" t="n">
         <v>12</v>
@@ -13441,7 +13441,7 @@
         <v>7</v>
       </c>
       <c r="C813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D813" t="n">
         <v>67</v>
@@ -13457,7 +13457,7 @@
         <v>7</v>
       </c>
       <c r="C814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D814" t="n">
         <v>15</v>
@@ -13473,7 +13473,7 @@
         <v>7</v>
       </c>
       <c r="C815" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D815" t="n">
         <v>101</v>
@@ -13489,7 +13489,7 @@
         <v>7</v>
       </c>
       <c r="C816" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D816" t="n">
         <v>226</v>
@@ -13505,7 +13505,7 @@
         <v>7</v>
       </c>
       <c r="C817" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D817" t="n">
         <v>16</v>
@@ -13521,7 +13521,7 @@
         <v>8</v>
       </c>
       <c r="C818" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D818" t="n">
         <v>531</v>
@@ -13537,7 +13537,7 @@
         <v>8</v>
       </c>
       <c r="C819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D819" t="n">
         <v>29</v>
@@ -13553,7 +13553,7 @@
         <v>8</v>
       </c>
       <c r="C820" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D820" t="n">
         <v>19</v>
@@ -13569,7 +13569,7 @@
         <v>8</v>
       </c>
       <c r="C821" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D821" t="n">
         <v>6</v>
